--- a/source/avatar2.xlsx
+++ b/source/avatar2.xlsx
@@ -208,8 +208,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,16 +228,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,114 +320,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,15 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,15 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,8 +607,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +654,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,16 +689,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,115 +707,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -1260,7 +1260,7 @@
         <v>100000</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1277,7 +1277,7 @@
         <v>100000</v>
       </c>
       <c r="F5" s="1">
-        <v>40</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1">
-        <v>70</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
@@ -1363,7 +1363,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>90</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
@@ -1380,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>110</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <v>120</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="1">
-        <v>130</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
@@ -1449,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="1">
-        <v>140</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>150</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:6">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <v>160</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
@@ -1501,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="1">
-        <v>170</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:6">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <v>180</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1">
-        <v>190</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1">
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:6">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <v>210</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1">
-        <v>220</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:6">
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <v>230</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1">
-        <v>240</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1639,9 +1639,8 @@
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26"/>
       <c r="F26" s="2">
-        <v>250</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1657,9 +1656,8 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27"/>
       <c r="F27" s="2">
-        <v>260</v>
+        <v>26000</v>
       </c>
     </row>
   </sheetData>
